--- a/biology/Médecine/Simulation_de_champ_électromagnétique/Simulation_de_champ_électromagnétique.xlsx
+++ b/biology/Médecine/Simulation_de_champ_électromagnétique/Simulation_de_champ_électromagnétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Simulation_de_champ_%C3%A9lectromagn%C3%A9tique</t>
+          <t>Simulation_de_champ_électromagnétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La simulation de champ électromagnétique permet de prévoir l’impact sur l'homme ou les machines de l'installation ou de la modification d'émetteurs, mais également ceux engendrés par tel ou tel choix de conception de bâtiments pièces et locaux.
 S'appuyant sur de la conception 3D d’environnement et sur des algorithmes de calcul de propagation du champ électromagnétique, la simulation de champ électromagnétique permet de donner les valeurs d'intensité de champ généré par une future installation, ou un futur équipement.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Simulation_de_champ_%C3%A9lectromagn%C3%A9tique</t>
+          <t>Simulation_de_champ_électromagnétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,16 +527,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Simulation de l’exposition des personnes aux champs électromagnétiques
-L’implantation d’un nouvel émetteur d’un réseau public (typiquement une antenne-relais de téléphonie mobile) suscite de plus en plus de réactions et de prises de précaution. La simulation de champ électromagnétique permet :
+          <t>Simulation de l’exposition des personnes aux champs électromagnétiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’implantation d’un nouvel émetteur d’un réseau public (typiquement une antenne-relais de téléphonie mobile) suscite de plus en plus de réactions et de prises de précaution. La simulation de champ électromagnétique permet :
 De prévoir comment le champ électromagnétique ambiant évoluera en implantant une nouvelle antenne
 De paramétrer l’antenne : direction (azimut), inclinaison (tilt mécanique ou électrique), hauteur, puissance, gain, ouverture horizontale et verticale du faisceau, afin de baisser au maximum l’exposition des personnes vivant ou travaillant à proximité, tout en assurant la bonne continuité du réseau.
-Les niveaux limites sont aujourd’hui donnés par le décret no 2002-775[1] transposant en droit français la recommandation européenne 1999/519/CE [2]
-Simulation des appareils et CEM
-Chaque nouveau matériel électrique et électronique est soumis à la directive européenne 2004/108/CE donnant les règles de fonctionnement de ces nouveaux appareils dans leur nouvel environnement. On appelle cela la compatibilité électromagnétique.
-D’une façon simplifiée, la directive déclare que tout nouvel appareil ne doit pas perturber, ni être perturbé par l’environnement dans lequel il va évoluer.
-La simulation de champ électromagnétique permet ainsi de prévoir quelle intensité de champ ce dernier émettra et quel sera le champ qu’il subira lorsqu’il sera placé dans son environnement d’utilisation.
-La simulation de champ peut ici se complexifier car on peut se retrouver en situation de champ proche suivant les fréquences étudiées. Les logiciels de simulation sont ainsi séparés en deux types, ceux traitant de la CEM et ceux traitant plutôt des problématiques de champ lointain comme EMF VISUAL de la société Satimo [3], MITHRA-REM [4], ou CST Micro Wave cette différence se retrouve également sur les types d’algorithme utilisés dans ces deux grandes familles de logiciels, chacun ayant leur domaine de prédilection. La vitesse de calcul et la précision des résultats sont les deux plus grandes données comparatives.
+Les niveaux limites sont aujourd’hui donnés par le décret no 2002-775 transposant en droit français la recommandation européenne 1999/519/CE 
 </t>
         </is>
       </c>
@@ -535,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Simulation_de_champ_%C3%A9lectromagn%C3%A9tique</t>
+          <t>Simulation_de_champ_électromagnétique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,16 +562,96 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Différents types de simulation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Simulation des appareils et CEM</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque nouveau matériel électrique et électronique est soumis à la directive européenne 2004/108/CE donnant les règles de fonctionnement de ces nouveaux appareils dans leur nouvel environnement. On appelle cela la compatibilité électromagnétique.
+D’une façon simplifiée, la directive déclare que tout nouvel appareil ne doit pas perturber, ni être perturbé par l’environnement dans lequel il va évoluer.
+La simulation de champ électromagnétique permet ainsi de prévoir quelle intensité de champ ce dernier émettra et quel sera le champ qu’il subira lorsqu’il sera placé dans son environnement d’utilisation.
+La simulation de champ peut ici se complexifier car on peut se retrouver en situation de champ proche suivant les fréquences étudiées. Les logiciels de simulation sont ainsi séparés en deux types, ceux traitant de la CEM et ceux traitant plutôt des problématiques de champ lointain comme EMF VISUAL de la société Satimo , MITHRA-REM , ou CST Micro Wave cette différence se retrouve également sur les types d’algorithme utilisés dans ces deux grandes familles de logiciels, chacun ayant leur domaine de prédilection. La vitesse de calcul et la précision des résultats sont les deux plus grandes données comparatives.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Simulation_de_champ_électromagnétique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simulation_de_champ_%C3%A9lectromagn%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Techniques de simulation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Simulation émetteurs publics
-Dans le cadre de l’implantation d’un nouvel émetteur de réseau public tel qu’une antenne relais de téléphonie mobile, une simulation de champ peut être réalisée sur une maison ou un immeuble en particulier ou bien sur le quartier tout entier entourant cette nouvelle implantation.
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Simulation émetteurs publics</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cadre de l’implantation d’un nouvel émetteur de réseau public tel qu’une antenne relais de téléphonie mobile, une simulation de champ peut être réalisée sur une maison ou un immeuble en particulier ou bien sur le quartier tout entier entourant cette nouvelle implantation.
 La difficulté majeure de ces études reste la récupération des données exactes des antennes.
-Les étapes d'une simulation
-La simulation de champ électromagnétique telle qu’elle est pratiquée aujourd’hui comporte les phases suivantes [5] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Simulation_de_champ_électromagnétique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simulation_de_champ_%C3%A9lectromagn%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Techniques de simulation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les étapes d'une simulation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La simulation de champ électromagnétique telle qu’elle est pratiquée aujourd’hui comporte les phases suivantes  :
 Récupération des données techniques des opérateurs de la nouvelle antenne.
 Définition d’un cadre de simulation (bâtiment, quartier, ville )
 Création du dénivelé du terrain sous logiciel de conception 3D
@@ -573,9 +665,44 @@
 			Propagation de champ sur logiciel EMF VISUAL
 			Répartition de champ dans un appartement
 			Exemple de rendu de simulation électromagnétique avec MithraREM
-Physique du rayonnement et principe de calcul.
-Pour calculer le champ que l’on retrouvera en un point plusieurs méthodes de calculs existent.
-La méthode la plus courante existant aujourd’hui dans les logiciels de simulation de champ électromagnétique en champ lointain est celle du lancer de rayons[6].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Simulation_de_champ_électromagnétique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Simulation_de_champ_%C3%A9lectromagn%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Techniques de simulation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Physique du rayonnement et principe de calcul.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour calculer le champ que l’on retrouvera en un point plusieurs méthodes de calculs existent.
+La méthode la plus courante existant aujourd’hui dans les logiciels de simulation de champ électromagnétique en champ lointain est celle du lancer de rayons.
 Les algorithmes de calcul géométriques définissent les trajets de toutes les ondes arrivant en un point de coordonnées définies.
 Une fois que ces trajectoires sont définies, l’algorithme de calcul de champ définit quelle sera la contribution de chacun de ces trajets au point donné. Cette technique s'appuie sur les lois de propagation optique.
 Les données intrinsèques des matériaux sont bien sur prises en compte. Leurs coefficients de réflexion, transmission, et diffraction sont utilisés pour quantifier l’intensité de champ électromagnétique apportée par chaque trajet.
@@ -584,34 +711,36 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Simulation_de_champ_%C3%A9lectromagn%C3%A9tique</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Simulation_de_champ_électromagnétique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Simulation_de_champ_%C3%A9lectromagn%C3%A9tique</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Simulation et construction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La simulation de champ électromagnétique permet donc de mieux implanter les nouveaux émetteurs de radio communication, elle permet aussi d’optimiser les bâtiments en construction ou en rénovation par rapport à l’environnement électromagnétique déjà existant [7]
-Elle permet en cela de satisfaire la cible 12 du label HQE des bâtiments à Haute qualité environnementale qui précise[8] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La simulation de champ électromagnétique permet donc de mieux implanter les nouveaux émetteurs de radio communication, elle permet aussi d’optimiser les bâtiments en construction ou en rénovation par rapport à l’environnement électromagnétique déjà existant 
+Elle permet en cela de satisfaire la cible 12 du label HQE des bâtiments à Haute qualité environnementale qui précise :
 Cible 12. Qualité sanitaire des espaces
 Maîtrise de l'exposition électromagnétique
 Identifier les sources internes "basse fréquence" (Énergies et Télécoms)
